--- a/biology/Biochimie/Fixation_du_carbone_en_C4/Fixation_du_carbone_en_C4.xlsx
+++ b/biology/Biochimie/Fixation_du_carbone_en_C4/Fixation_du_carbone_en_C4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fixation du carbone en C4 est l'un des trois modes de fixation du carbone des plantes, parallèlement à la fixation du carbone en C3 et au métabolisme acide crassulacéen (CAM). On l'appelle ainsi en référence à l'oxaloacétate,  molécule comportant quatre atomes de carbone formée dès la première étape du processus chez un petit groupe de végétaux souvent désignés collectivement comme « plantes en C4 ».
 On pense que le processus en C4 est une évolution de la fixation du carbone en C3. Les processus de type C4 et CAM permettent en effet de limiter la photorespiration, qui résulte de la fixation d'une molécule d'oxygène O2 par l'activité oxygénase de la Rubisco parallèlement à l'activité carboxylase de cette enzyme qui, seule, permet la fixation du dioxyde de carbone CO2.
@@ -512,7 +524,9 @@
           <t>Processus biochimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les plantes en C4, le CO2 est d'abord fixé sur du phosphoénolpyruvate par la phosphoénolpyruvate carboxylase, une enzyme à l'activité carboxylase plus efficace que celle de la Rubisco :
 Le phosphoénolpyruvate est lui-même préalablement formé à partir du pyruvate sous l'action de la pyruvate phosphate dikinase. La fixation du CO2 sur le phosphoénolpyruvate se déroule au niveau des cellules du mésophylle, représentées en jaune sur les schémas ci-dessous. Elle est favorisée par la faible constante de Michaelis Km de la phosphoénolpyruvate carboxylase — c'est-à-dire la concentration molaire de substrat à laquelle l'enzyme atteint la moitié de sa vitesse de réaction maximale — qui est inférieure à celle de la Rubisco, ce qui signifie que cette dernière est moins rapide à taux de CO2 égal.
@@ -550,11 +564,13 @@
           <t>Avantage compétitif des plantes en C4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes dites « en C4 » ont un avantage adaptatif par rapport aux plantes qui réalisent la fixation du carbone « en C3 » lorsqu'elles sont soumises à la sécheresse, à la chaleur et à un faible taux d'azote N2 ou de dioxyde de carbone CO2. Lorsqu'elles sont cultivées dans le même environnement à 30 °C, les graminées en C3 perdent environ 833 molécules d'eau par molécule de CO2 fixée, tandis que celles en C4 en perdent seulement 277, ce qui leur offre un avantage dans les environnements arides[1]. Les plantes en C4 peuvent maintenir une photosynthèse active à des concentrations de CO2 faibles et sont ainsi plus adaptées aux milieux secs dans lesquelles elles peuvent réduire leur évaporation stomatique (en fermant partiellement leurs stomates pendant les périodes de stress hydrique). Elles font appel à une enzyme pour leurs réactions de phosphorylation, la pyruvate phosphate dikinase qui est labile au froid (diminution d'activité en dessous de 12 °C), les rendant sensibles aux basses températures. Dans les régions subtropicales à tropicales ouvertes (faible disponibilité en eau) et à rayonnement solaire élevé, le métabolisme en C4 procure un avantage net[2].
-La fixation du carbone en C4 est apparue une quarantaine de fois dans différentes familles de plantes, ce qui en fait une parfaite illustration d'évolution convergente[3]. Cette convergence a pu être facilitée par le fait que plusieurs évolutions possibles vers un phénotype en C4 existent, dont de nombreuses impliquent des étapes initiales qui ne sont pas directement liées à la photosynthèse[4]. Les plantes en C4 seraient apparues il y a entre 25 et 32 millions d'années à l'Oligocène et leur présence ne serait devenue significative qu'il y a 6 à 7 millions d'années, au Miocène[3]. Ce métabolisme aurait pris de l'ampleur lorsque les graminées se seraient répandues depuis les sous-bois ombragés pour se répandre dans des environnements plus exposés (savanes et prairies inter-tropicales)[5], où le fort rayonnement solaire lui donnait l'avantage par rapport à la voie métabolique en C3[6]. Cette innovation n'a pas été rendue nécessaire par la sécheresse, la résistance accrue au stress hydrique apparaissant comme une conséquence heureuse de cette évolution, permettant aux plantes qui en étaient pourvues de coloniser les environnements arides[6]. 
-Les plantes en C4 représentent aujourd'hui 5 % de la biomasse végétale et 3 % des espèces de plantes connues[1],[7] mais près de 25 % de la photosynthèse terrestre[8]. 60 % d'entre elles sont des herbes des prairies et savanes tropicales et subtropicales[9], dont certaines sont des graminées de grand intérêt agronomique (sorgho et maïs qui ont connu un fort développement sous des climats tempérés grâce à des programmes de sélection, canne à sucre, mil)[10]. En dépit de leur relative rareté, elles sont cependant responsables d'environ 30 % de la fixation du carbone sur Terre[3]. Accroître la proportion de plantes en C4 à la surface de notre planète pourrait favoriser la séquestration naturelle du CO2 et constitue une stratégie possible de prévention du réchauffement climatique[11]. Les plantes en C4 sont aujourd'hui concentrées dans les zones tropicales et subtropicales, c'est-à-dire aux latitudes inférieures à 45°, là où les températures élevées tendent à favoriser l'activité oxygénase de la Rubisco, et donc la photorespiration des plantes en C3.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes dites « en C4 » ont un avantage adaptatif par rapport aux plantes qui réalisent la fixation du carbone « en C3 » lorsqu'elles sont soumises à la sécheresse, à la chaleur et à un faible taux d'azote N2 ou de dioxyde de carbone CO2. Lorsqu'elles sont cultivées dans le même environnement à 30 °C, les graminées en C3 perdent environ 833 molécules d'eau par molécule de CO2 fixée, tandis que celles en C4 en perdent seulement 277, ce qui leur offre un avantage dans les environnements arides. Les plantes en C4 peuvent maintenir une photosynthèse active à des concentrations de CO2 faibles et sont ainsi plus adaptées aux milieux secs dans lesquelles elles peuvent réduire leur évaporation stomatique (en fermant partiellement leurs stomates pendant les périodes de stress hydrique). Elles font appel à une enzyme pour leurs réactions de phosphorylation, la pyruvate phosphate dikinase qui est labile au froid (diminution d'activité en dessous de 12 °C), les rendant sensibles aux basses températures. Dans les régions subtropicales à tropicales ouvertes (faible disponibilité en eau) et à rayonnement solaire élevé, le métabolisme en C4 procure un avantage net.
+La fixation du carbone en C4 est apparue une quarantaine de fois dans différentes familles de plantes, ce qui en fait une parfaite illustration d'évolution convergente. Cette convergence a pu être facilitée par le fait que plusieurs évolutions possibles vers un phénotype en C4 existent, dont de nombreuses impliquent des étapes initiales qui ne sont pas directement liées à la photosynthèse. Les plantes en C4 seraient apparues il y a entre 25 et 32 millions d'années à l'Oligocène et leur présence ne serait devenue significative qu'il y a 6 à 7 millions d'années, au Miocène. Ce métabolisme aurait pris de l'ampleur lorsque les graminées se seraient répandues depuis les sous-bois ombragés pour se répandre dans des environnements plus exposés (savanes et prairies inter-tropicales), où le fort rayonnement solaire lui donnait l'avantage par rapport à la voie métabolique en C3. Cette innovation n'a pas été rendue nécessaire par la sécheresse, la résistance accrue au stress hydrique apparaissant comme une conséquence heureuse de cette évolution, permettant aux plantes qui en étaient pourvues de coloniser les environnements arides. 
+Les plantes en C4 représentent aujourd'hui 5 % de la biomasse végétale et 3 % des espèces de plantes connues, mais près de 25 % de la photosynthèse terrestre. 60 % d'entre elles sont des herbes des prairies et savanes tropicales et subtropicales, dont certaines sont des graminées de grand intérêt agronomique (sorgho et maïs qui ont connu un fort développement sous des climats tempérés grâce à des programmes de sélection, canne à sucre, mil). En dépit de leur relative rareté, elles sont cependant responsables d'environ 30 % de la fixation du carbone sur Terre. Accroître la proportion de plantes en C4 à la surface de notre planète pourrait favoriser la séquestration naturelle du CO2 et constitue une stratégie possible de prévention du réchauffement climatique. Les plantes en C4 sont aujourd'hui concentrées dans les zones tropicales et subtropicales, c'est-à-dire aux latitudes inférieures à 45°, là où les températures élevées tendent à favoriser l'activité oxygénase de la Rubisco, et donc la photorespiration des plantes en C3.
 </t>
         </is>
       </c>
